--- a/biology/Médecine/Léon_Clément_Le_Fort/Léon_Clément_Le_Fort.xlsx
+++ b/biology/Médecine/Léon_Clément_Le_Fort/Léon_Clément_Le_Fort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Cl%C3%A9ment_Le_Fort</t>
+          <t>Léon_Clément_Le_Fort</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Léon Clément Le Fort, né le 5 décembre 1829 à Lille et mort le 19 octobre 1893 à Ménestreau-en-Villette (Loiret), est un chirurgien et médecin français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Cl%C3%A9ment_Le_Fort</t>
+          <t>Léon_Clément_Le_Fort</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1848, il est chirurgien élève à l'hôpital militaire d'instruction de Lille puis licencié par décret du 23 avril 1850 qui supprime les hôpitaux militaires d'instruction[1]. Il continue ses études médicales à Paris où en 1850, il est externe des hôpitaux civils de Paris et en 1852, interne des hôpitaux civils de Paris. Il a comme professeurs Joseph-François Malgaigne (1806-1865) et Stanislas Laugier (1799-1872).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1848, il est chirurgien élève à l'hôpital militaire d'instruction de Lille puis licencié par décret du 23 avril 1850 qui supprime les hôpitaux militaires d'instruction. Il continue ses études médicales à Paris où en 1850, il est externe des hôpitaux civils de Paris et en 1852, interne des hôpitaux civils de Paris. Il a comme professeurs Joseph-François Malgaigne (1806-1865) et Stanislas Laugier (1799-1872).
 En 1858, il est aide d'anatomie à la Faculté de médecine de Paris et obtient le doctorat de médecine.
 Devenu maire de Ménestreau-en-Villette, il y fait construire la propriété du Briou, entourée de bois et d'étangs, où il pratique la chasse, la sylviculture et la pisciculture.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Cl%C3%A9ment_Le_Fort</t>
+          <t>Léon_Clément_Le_Fort</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Activité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1861, il devient prosecteur à la Faculté de médecine de Paris.
 De 1865 à 1872 il est chirurgien dans différents hôpitaux de Paris.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Cl%C3%A9ment_Le_Fort</t>
+          <t>Léon_Clément_Le_Fort</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1865, il épouse Aline Malgaigne (1844-1898), fille de son professeur de médecine, dont il a deux enfants :
 Jeanne (1863-1932), qui épousera le 23 juillet 1891 à Paris IXe, le chirurgien Félix Lejars (1863-1932)
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Cl%C3%A9ment_Le_Fort</t>
+          <t>Léon_Clément_Le_Fort</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Léon Clément Le Fort rédigea un certain nombre de rapports et d'articles spécialisés.
 Recherches sur l’anatomie des poumons chez l’homme. 1858.
